--- a/biology/Botanique/Mediophyceae/Mediophyceae.xlsx
+++ b/biology/Botanique/Mediophyceae/Mediophyceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Mediophyceae sont une classe d’algues de l'embranchement des Bacillariophyta (Diatomées) et du sous-embranchement des Bacillariophytina.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-classes et ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (1er août 2022)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (1er août 2022) :
 Sous-classe des Biddulphiophycidae Round &amp; R.M.Crawford, 1990
 Ordre des Biddulphiales Krieger, 1954
 Ordre des Bilinguales Nikolaev &amp; Harwood
@@ -559,9 +573,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Mediophyceae Medlin &amp; Kaczmarska, 2004[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Mediophyceae Medlin &amp; Kaczmarska, 2004.
 </t>
         </is>
       </c>
@@ -590,7 +606,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Medlin, L.K. &amp; Kaczmarska, I. (2004). Evolution of the diatoms: V. Morphological and cytological support for the major clades and a taxonomic revision. Phycologia   (ISSN 0031-8884 et 2330-2968) 43:  245-270.</t>
         </is>
